--- a/Auto-avaliação.xlsx
+++ b/Auto-avaliação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mendonca/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78dab5d099cd5826/Documentos/ISEP/LAPR-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA8BAD-02FC-DB4A-BF19-078C3ED952B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C9BA8BAD-02FC-DB4A-BF19-078C3ED952B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46A1EB63-6C96-4CFA-9382-B76100B9A95C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="ItemEval">[1]!Table2[ItemEval]</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1231,6 +1231,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1868,37 +1871,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.83203125" customWidth="1"/>
+    <col min="4" max="19" width="7.796875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1907,13 +1910,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="61"/>
       <c r="E8" s="65" t="s">
@@ -1935,7 +1938,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="106.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -2002,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -2029,17 +2032,29 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1190624</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>4</v>
+      </c>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2049,12 +2064,12 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="51" t="e">
+      <c r="S11" s="51">
         <f t="shared" ref="S11:S24" si="0">AVERAGE(D11:R11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1211572</v>
@@ -2091,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221692</v>
@@ -2128,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
         <v>1211681</v>
@@ -2165,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63"/>
       <c r="C15" s="8">
         <v>1211184</v>
@@ -2202,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -2227,7 +2242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -2252,7 +2267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -2260,7 +2275,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -2277,7 +2292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2302,7 +2317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -2327,7 +2342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -2352,7 +2367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -2377,7 +2392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2402,7 +2417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>15</v>
@@ -2427,7 +2442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2438,7 +2453,7 @@
       </c>
       <c r="E25" s="46">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" si="1"/>
@@ -2454,7 +2469,7 @@
       </c>
       <c r="I25" s="46">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J25" s="46" t="e">
         <f t="shared" si="1"/>
@@ -2494,27 +2509,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2522,7 +2537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2530,7 +2545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2538,7 +2553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2546,7 +2561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2554,7 +2569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2583,11 +2598,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -2595,13 +2610,13 @@
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2657,7 +2672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2681,7 +2696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>110</v>
       </c>
@@ -2711,7 +2726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>111</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>112</v>
       </c>
@@ -2767,12 +2782,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>210</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="29">
+        <v>1190624</v>
+      </c>
+      <c r="C9" s="29">
+        <v>5</v>
+      </c>
       <c r="D9" s="59"/>
       <c r="E9" s="14" t="s">
         <v>37</v>
@@ -2793,12 +2812,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>211</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="29">
+        <v>1190624</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4</v>
+      </c>
       <c r="D10" s="59"/>
       <c r="E10" s="14" t="s">
         <v>37</v>
@@ -2819,7 +2842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>212</v>
       </c>
@@ -2849,7 +2872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>213</v>
       </c>
@@ -2879,7 +2902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>214</v>
       </c>
@@ -2909,7 +2932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>215</v>
       </c>
@@ -2939,7 +2962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>216</v>
       </c>
@@ -2969,7 +2992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>307</v>
       </c>
@@ -2999,7 +3022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>308</v>
       </c>
@@ -3029,7 +3052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>309</v>
       </c>
@@ -3055,7 +3078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>310</v>
       </c>
@@ -3081,7 +3104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>311</v>
       </c>
@@ -3107,7 +3130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>406</v>
       </c>
@@ -3135,7 +3158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>407</v>
       </c>
@@ -3163,7 +3186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>408</v>
       </c>
@@ -3193,7 +3216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>409</v>
       </c>
@@ -3311,28 +3334,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="17" width="5.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
@@ -3351,8 +3374,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3453,7 +3476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -3461,7 +3484,9 @@
         <v>0.1</v>
       </c>
       <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25">
         <v>5</v>
@@ -3483,7 +3508,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="27">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>50</v>
@@ -3506,7 +3531,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
@@ -3514,7 +3539,9 @@
         <v>0.2</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25">
         <v>3</v>
@@ -3536,7 +3563,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>57</v>
@@ -3559,7 +3586,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
@@ -3567,7 +3594,9 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25">
         <v>4</v>
@@ -3612,7 +3641,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
@@ -3620,7 +3649,9 @@
         <v>0.2</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25">
         <v>4</v>
@@ -3642,7 +3673,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="27">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>70</v>
@@ -3665,7 +3696,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -3679,7 +3710,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
@@ -3743,7 +3774,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>75</v>
       </c>
@@ -3754,7 +3785,7 @@
       </c>
       <c r="D9" s="23">
         <f t="shared" ref="D9:Q9" si="2">D8/5*20</f>
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="E9" s="23">
         <f t="shared" si="2"/>
@@ -3818,7 +3849,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3837,26 +3868,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="17" width="5.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="20.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
@@ -3875,7 +3906,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3976,7 +4007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
@@ -3984,7 +4015,9 @@
         <v>0.1</v>
       </c>
       <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
       <c r="E4" s="25">
         <v>5</v>
       </c>
@@ -4031,7 +4064,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
@@ -4039,7 +4072,9 @@
         <v>0.1</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25">
+        <v>5</v>
+      </c>
       <c r="E5" s="25">
         <v>4</v>
       </c>
@@ -4063,7 +4098,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S5" s="58" t="s">
         <v>85</v>
@@ -4086,7 +4121,7 @@
       <c r="Y5" s="55"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
@@ -4094,7 +4129,9 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
       <c r="E6" s="25">
         <v>4</v>
       </c>
@@ -4141,7 +4178,7 @@
       <c r="Y6" s="55"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
@@ -4149,7 +4186,9 @@
         <v>0.05</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
       <c r="E7" s="25">
         <v>3</v>
       </c>
@@ -4196,7 +4235,7 @@
       <c r="Y7" s="55"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
@@ -4204,7 +4243,9 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
       <c r="E8" s="25">
         <v>5</v>
       </c>
@@ -4228,7 +4269,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="54">
         <f t="shared" ref="R8:R12" si="1">AVERAGE(C8:Q8)</f>
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S8" s="58" t="s">
         <v>92</v>
@@ -4251,7 +4292,7 @@
       <c r="Y8" s="55"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
@@ -4259,7 +4300,9 @@
         <v>0.05</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
       <c r="E9" s="25">
         <v>5</v>
       </c>
@@ -4283,7 +4326,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="54">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>4.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S9" s="58" t="s">
         <v>111</v>
@@ -4302,7 +4345,7 @@
       <c r="Y9" s="55"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>115</v>
       </c>
@@ -4310,7 +4353,9 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
       <c r="E10" s="25">
         <v>5</v>
       </c>
@@ -4334,7 +4379,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="54">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S10" s="58" t="s">
         <v>111</v>
@@ -4357,7 +4402,7 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>121</v>
       </c>
@@ -4365,7 +4410,9 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25">
+        <v>3</v>
+      </c>
       <c r="E11" s="25">
         <v>3</v>
       </c>
@@ -4389,7 +4436,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="54">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S11" s="58" t="s">
         <v>111</v>
@@ -4412,7 +4459,7 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>127</v>
       </c>
@@ -4420,7 +4467,9 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25">
+        <v>4</v>
+      </c>
       <c r="E12" s="25">
         <v>4</v>
       </c>
@@ -4444,7 +4493,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="54">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="S12" s="58" t="s">
         <v>111</v>
@@ -4467,7 +4516,7 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>128</v>
       </c>
@@ -4475,7 +4524,9 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25">
+        <v>5</v>
+      </c>
       <c r="E13" s="25">
         <v>5</v>
       </c>
@@ -4522,7 +4573,7 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>135</v>
       </c>
@@ -4530,7 +4581,9 @@
         <v>0.15</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25">
+        <v>4</v>
+      </c>
       <c r="E14" s="25">
         <v>4</v>
       </c>
@@ -4554,7 +4607,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="54">
         <f>AVERAGE(C14:Q14)</f>
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="S14" s="58" t="s">
         <v>111</v>
@@ -4577,7 +4630,7 @@
       <c r="Y14" s="55"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -4591,7 +4644,7 @@
       </c>
       <c r="D15" s="7">
         <f>SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" ref="E15:Q15" si="4">SUMPRODUCT(E4:E14,$B$4:$B$14)</f>
@@ -4655,7 +4708,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>75</v>
       </c>
@@ -4666,7 +4719,7 @@
       </c>
       <c r="D16" s="23">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="E16" s="23">
         <f t="shared" si="5"/>
@@ -4730,7 +4783,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4929,18 +4982,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4962,6 +5015,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4975,12 +5036,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>